--- a/outputs/ML_Results/carown_LR/Kassel.xlsx
+++ b/outputs/ML_Results/carown_LR/Kassel.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ14" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ6" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ9" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ9" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ10" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1064.778196576803</v>
+        <v>31.26380671114605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999530242636908</v>
+        <v>0.9986665329542859</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1035.872211659952</v>
+        <v>-17.44873991941367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999542995339095</v>
+        <v>0.9992557741008924</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1035.555785265051</v>
+        <v>-17.07886770201012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999543134939651</v>
+        <v>0.9992715499341236</v>
       </c>
     </row>
     <row r="5">
@@ -504,257 +504,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1037.219962799779</v>
+        <v>-19.08256169487942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999542400740122</v>
+        <v>0.9991860881476071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1036.250945328276</v>
+        <v>-18.96403932945966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999542828249902</v>
+        <v>0.9991911433769169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1037.190708608551</v>
+        <v>-18.24176196979281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999542413646446</v>
+        <v>0.9992219500332189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1036.419626723136</v>
+        <v>-0.1093064862494411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999542753831279</v>
+        <v>0.6502737672675361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02357242209480294</v>
+        <v>0.0003597758813676693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9235531752567203</v>
+        <v>0.0002198867355556287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000399649694198325</v>
+        <v>0.01092541747040483</v>
       </c>
       <c r="C10" t="n">
-        <v>4.381747222376622e-05</v>
+        <v>0.1816717127246548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01257696690168938</v>
+        <v>-0.08045649910728052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1245415803324931</v>
+        <v>0.7315433875507011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005668269730093311</v>
+        <v>1.023725468746506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9810371576698258</v>
+        <v>0.0009631877420483131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8307292605297775</v>
+        <v>0.6501557530409221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005643928468688325</v>
+        <v>0.102692994398779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5926159601413926</v>
+        <v>-0.0008805505087209243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1265368291407472</v>
+        <v>0.01461811777066075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001177505898134037</v>
+        <v>-2.230142447513201e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001191280352429448</v>
+        <v>0.1375549973856639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.779966418324024e-06</v>
+        <v>-0.8195253363505971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01159836529234138</v>
+        <v>0.1391994705894385</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.375984132376341</v>
+        <v>-2.362845691123048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01099821273144632</v>
+        <v>0.2454117165945182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.409654367606742</v>
+        <v>-31.28711857566458</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03110570785354785</v>
+        <v>0.2163114474710501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-53.87048623570309</v>
+        <v>-0.1346098124675821</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03401817390099653</v>
+        <v>0.1871281188026188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2405531173486336</v>
+        <v>0.09848532436465697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01793371371292385</v>
+        <v>0.09826006791384177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1328287951139253</v>
+        <v>21.88841954576204</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02941546930909212</v>
+        <v>0.06546153941066271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.33367223165901</v>
+        <v>13.95059524226366</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005472513034054018</v>
+        <v>0.1740944951357278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.08786295858541</v>
+        <v>-12.17701097928461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02031216678048292</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-20.98127567872085</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02017087396809396</v>
+        <v>0.1719493106132339</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.62435215051506</v>
+        <v>57.28277994411164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9689678697984583</v>
+        <v>0.9988665816864367</v>
       </c>
     </row>
     <row r="3">
@@ -813,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.50297472552055</v>
+        <v>-18.8634301790722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9912102271089376</v>
+        <v>0.9996267610431739</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10.59344676539305</v>
+        <v>-18.31588562285249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9919052011244006</v>
+        <v>0.999637594965915</v>
       </c>
     </row>
     <row r="5">
@@ -839,257 +826,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-13.42663818570397</v>
+        <v>-20.43316983602168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9897403727873169</v>
+        <v>0.9995957015837791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.96226396358445</v>
+        <v>-20.2194913115261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9908592868210163</v>
+        <v>0.9995999295074186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.21687044615562</v>
+        <v>-19.05679998072734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9899006529374491</v>
+        <v>0.9996229349555386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.19260594651751</v>
+        <v>-0.2071614359265267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9906832883368263</v>
+        <v>0.3393110290479482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3726592338023176</v>
+        <v>0.0004712078586843473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07647609023230952</v>
+        <v>2.531569347993285e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004227692205518235</v>
+        <v>0.01080563520888442</v>
       </c>
       <c r="C10" t="n">
-        <v>2.874370337952168e-05</v>
+        <v>0.197369444420454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0168568943430222</v>
+        <v>-0.2035900454182205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04341302931534032</v>
+        <v>0.3897019340650887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06606850543626371</v>
+        <v>0.8567845292546877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7797083119143933</v>
+        <v>0.005619716792828486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9732605484154004</v>
+        <v>0.6548549141781838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001723310647024457</v>
+        <v>0.09752201509796729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.534399095905376</v>
+        <v>-0.001160360656069434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1824667868307462</v>
+        <v>0.0008725780981097503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0009102270587375141</v>
+        <v>-4.467963996236637e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00780267044890591</v>
+        <v>0.002742953539109394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.164998055054606e-06</v>
+        <v>-1.603638617484633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03041590685866986</v>
+        <v>0.00284992653257853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.279472839714824</v>
+        <v>-5.264743233007631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01808025190590394</v>
+        <v>0.009548588580897044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.701468937747491</v>
+        <v>-67.52913458581915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06153844054969622</v>
+        <v>0.007453954955255573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-47.92825908137348</v>
+        <v>-0.2879162902459083</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05124294406989675</v>
+        <v>0.00449249711601518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1965982729184876</v>
+        <v>0.1265762372587259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04691975325436656</v>
+        <v>0.03412335572520967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07664710519651179</v>
+        <v>36.33852592599124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1905780289296811</v>
+        <v>0.002169952824900325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.77456630269849</v>
+        <v>28.11135893880773</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02483608577565585</v>
+        <v>0.00636005620419718</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.73866957595341</v>
+        <v>-24.23460253683963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04893528773330683</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-17.16637554519072</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04736190560967268</v>
+        <v>0.006748800124969972</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.03174690240361</v>
+        <v>45.89177001595672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933350619819178</v>
+        <v>0.9986733204351391</v>
       </c>
     </row>
     <row r="3">
@@ -1148,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.09828070669053</v>
+        <v>-18.13608407219995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978138894626032</v>
+        <v>0.9994757058899895</v>
       </c>
     </row>
     <row r="4">
@@ -1161,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-14.59628583708887</v>
+        <v>-17.70243532363047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978865741479861</v>
+        <v>0.9994882421935073</v>
       </c>
     </row>
     <row r="5">
@@ -1174,257 +1148,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-16.60431252243493</v>
+        <v>-19.7830095087557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9975958287084048</v>
+        <v>0.9994280951069502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15.81271451646086</v>
+        <v>-19.57831282820837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9977104454397182</v>
+        <v>0.9994340126602692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.39834345721135</v>
+        <v>-19.19333664847017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9976256512891657</v>
+        <v>0.9994451418935157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.29657123279026</v>
+        <v>-0.1550398933340039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.997640387106859</v>
+        <v>0.4986274816902821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2207606156042788</v>
+        <v>0.0003946756475428278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2979148940407025</v>
+        <v>5.238161914175511e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004827414307910908</v>
+        <v>0.01049526532344293</v>
       </c>
       <c r="C10" t="n">
-        <v>1.116673388788269e-06</v>
+        <v>0.1976261181812801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00674217094219126</v>
+        <v>-0.0963488217900963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4126094472866179</v>
+        <v>0.6789275221206059</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.2631819366762715</v>
+        <v>0.9676724288949203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2664724295781863</v>
+        <v>0.001265838673738087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8659250599663033</v>
+        <v>0.5424363600510969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004349592769078254</v>
+        <v>0.1580892275055527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5714803713458367</v>
+        <v>-0.0009389348273682647</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1377990133023669</v>
+        <v>0.005667137100975089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001017695227806626</v>
+        <v>-3.163392222693673e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002678778191209879</v>
+        <v>0.02911748476089356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.551473943376553e-06</v>
+        <v>-1.095419279817852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0142457147037765</v>
+        <v>0.03882894738028748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.361443490055288</v>
+        <v>-3.662885792370692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01012070618504228</v>
+        <v>0.06220809370210147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.151944418985655</v>
+        <v>-46.63249613820916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03522650162363612</v>
+        <v>0.05614495689296754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-53.4022706037319</v>
+        <v>-0.2107074032790185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02905213155139684</v>
+        <v>0.03244030538160702</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2213135024368694</v>
+        <v>0.08621989069849433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02436153664057077</v>
+        <v>0.1341180235877499</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1007116962604531</v>
+        <v>28.27931977020482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0843947693145638</v>
+        <v>0.01358218574138594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.00960119951453</v>
+        <v>21.22430496370385</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008896790508664605</v>
+        <v>0.03307414931508026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.89568614888752</v>
+        <v>-18.43591554616111</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01720611523211269</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-20.13407836476364</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02012348129171561</v>
+        <v>0.03263877581299515</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.04495950828494</v>
+        <v>46.77113708109191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9804977796443929</v>
+        <v>0.9986803152997686</v>
       </c>
     </row>
     <row r="3">
@@ -1483,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-12.28919467244999</v>
+        <v>-18.10335153930971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9940142891461174</v>
+        <v>0.9994891993287091</v>
       </c>
     </row>
     <row r="4">
@@ -1496,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-11.74150592664775</v>
+        <v>-17.49592925724419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9942810480405041</v>
+        <v>0.9995063382363777</v>
       </c>
     </row>
     <row r="5">
@@ -1509,257 +1470,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-14.17996474782167</v>
+        <v>-19.72751590178569</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9930933713218683</v>
+        <v>0.9994433722278288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12.77056510976812</v>
+        <v>-19.57521503717214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9937798326033217</v>
+        <v>0.9994476695188742</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.95041997874985</v>
+        <v>-18.27353956162931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9932051728763827</v>
+        <v>0.9994843973371104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.91212312909994</v>
+        <v>-0.2655550303390055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9937108865779393</v>
+        <v>0.218219659516478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2981599566908176</v>
+        <v>0.0004312540448494879</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1620376605262629</v>
+        <v>1.480847957411397e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004259271664413522</v>
+        <v>0.007636271775487031</v>
       </c>
       <c r="C10" t="n">
-        <v>1.800318055565978e-05</v>
+        <v>0.3523420247752042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006840654173345762</v>
+        <v>-0.2045600617632556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4074360163155775</v>
+        <v>0.3802355578621517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1479382365162708</v>
+        <v>1.086657822549079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5215973644136925</v>
+        <v>0.0003468676019901619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7730037486072815</v>
+        <v>0.7686443068146137</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01179618524345819</v>
+        <v>0.04810012919311979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6100641065620647</v>
+        <v>-0.0009044749625989207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1169027604977457</v>
+        <v>0.006237878404357819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0009591130548547004</v>
+        <v>-3.281088277240979e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005309138779938427</v>
+        <v>0.0197575851695357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.310417900954473e-06</v>
+        <v>-1.272434420339269</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02477229467198874</v>
+        <v>0.01419665865574521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.0956243235106</v>
+        <v>-3.834061533834147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0410289265557361</v>
+        <v>0.04484143742249313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.766538194353033</v>
+        <v>-47.13195971128565</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06021197700666121</v>
+        <v>0.04745752217366196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-46.89811077504117</v>
+        <v>-0.2056346835140943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05950686931762854</v>
+        <v>0.03135086634149804</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1957976849371199</v>
+        <v>0.09160696903900445</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05038733626269366</v>
+        <v>0.1064427614074748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09407255387510827</v>
+        <v>26.08644219674597</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1076538913016798</v>
+        <v>0.01863547413780603</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.03450702245852</v>
+        <v>20.10843219499487</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01302608831535052</v>
+        <v>0.03806702935344971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.348357971491</v>
+        <v>-17.55012372074406</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01657022812658076</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-19.60824750515438</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02614564655557649</v>
+        <v>0.03608307338596153</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.08951224253614</v>
+        <v>39.87469740125146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.986963102678602</v>
+        <v>0.9985876722803906</v>
       </c>
     </row>
     <row r="3">
@@ -1818,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.43452500885724</v>
+        <v>-17.74221329177983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9959351125331284</v>
+        <v>0.9993715855661788</v>
       </c>
     </row>
     <row r="4">
@@ -1831,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-13.08334925412374</v>
+        <v>-17.0790626333509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9960413670480659</v>
+        <v>0.9993950738063272</v>
       </c>
     </row>
     <row r="5">
@@ -1844,257 +1792,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-14.93350515675273</v>
+        <v>-19.31530704386335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9954815703710922</v>
+        <v>0.9993158679073769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.0997155706028</v>
+        <v>-19.23213736388816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9957338476381732</v>
+        <v>0.9993188137074821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.89518753970934</v>
+        <v>-18.04336788224735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9954931640088422</v>
+        <v>0.999360918923605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.22006446951583</v>
+        <v>-0.27119351861726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9956974343851724</v>
+        <v>0.1957816533621779</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1687254459993586</v>
+        <v>0.0004248568858335697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4409399446223163</v>
+        <v>1.298876829960859e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004350809198546236</v>
+        <v>0.01427587704441836</v>
       </c>
       <c r="C10" t="n">
-        <v>5.577870385985808e-06</v>
+        <v>0.07895508450754481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006338085931489375</v>
+        <v>-0.1444761199577661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4317544996932883</v>
+        <v>0.5398604584411878</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1186316564289962</v>
+        <v>0.8756692871125409</v>
       </c>
       <c r="C12" t="n">
-        <v>0.609007454502225</v>
+        <v>0.003455482736735005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8884940759021586</v>
+        <v>0.4906290462521282</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003584278174280627</v>
+        <v>0.2101529203927202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7531589318245018</v>
+        <v>-0.0009442650648676431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05702700090807435</v>
+        <v>0.00794733516654161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0008836103035909412</v>
+        <v>-2.819079059365779e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007863326838673976</v>
+        <v>0.05438476462642469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.477952093634923e-06</v>
+        <v>-1.116261972166919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01400052490202081</v>
+        <v>0.03838046617641284</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.285707068513935</v>
+        <v>-3.184067815476363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01350270850639974</v>
+        <v>0.1091117752285902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.922418119651795</v>
+        <v>-41.07690348004837</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04123381980265632</v>
+        <v>0.09642417982939168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-50.75556407602804</v>
+        <v>-0.1796498737868964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03363884010242349</v>
+        <v>0.06959340736341184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2097057291258227</v>
+        <v>0.09749540265587327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02912882169997314</v>
+        <v>0.1067872677529953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09193088929632684</v>
+        <v>25.91245948432637</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1031749299521626</v>
+        <v>0.02561925397230691</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.9389699800353</v>
+        <v>17.16972863077266</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01236494244833039</v>
+        <v>0.08898791919369729</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.48539726488292</v>
+        <v>-15.72724619595934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01564499725349181</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-19.14889591895658</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02299501916733962</v>
+        <v>0.0715372618530212</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2140,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.89381721124511</v>
+        <v>43.57038711051397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8483537280742</v>
+        <v>0.9985381377731052</v>
       </c>
     </row>
     <row r="3">
@@ -2153,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.998324326730301</v>
+        <v>-17.73253014940651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9627823248888033</v>
+        <v>0.999405042402331</v>
       </c>
     </row>
     <row r="4">
@@ -2166,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.358831553554088</v>
+        <v>-17.09945551641275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9657562311660465</v>
+        <v>0.9994262831669263</v>
       </c>
     </row>
     <row r="5">
@@ -2179,257 +2114,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-9.822270932478576</v>
+        <v>-19.52384357778714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9543036238295316</v>
+        <v>0.9993449406968141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.591763852008068</v>
+        <v>-19.31922787118014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9600233863346186</v>
+        <v>0.9993518059122731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.724578613051257</v>
+        <v>-18.36866599257179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9547576384780145</v>
+        <v>0.9993836989294452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.720261677150928</v>
+        <v>-0.3107964566109723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9594267844921818</v>
+        <v>0.1248124905594905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3499430642306449</v>
+        <v>0.0004084196027639786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0941741538642492</v>
+        <v>2.173027023890317e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003881588668142975</v>
+        <v>0.01021061741085946</v>
       </c>
       <c r="C10" t="n">
-        <v>5.523410387249928e-05</v>
+        <v>0.2189855002829261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01173416042287747</v>
+        <v>-0.1133012786340688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1512259329713056</v>
+        <v>0.6305414432956868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1780510316442175</v>
+        <v>0.7493399473752348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4477526457573654</v>
+        <v>0.01390760621341301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8127477499682662</v>
+        <v>0.4865222310115276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007525786771580943</v>
+        <v>0.215285647437748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3588987024201442</v>
+        <v>-0.001060561778374689</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3620015013939808</v>
+        <v>0.002597527494913518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0008380206401850698</v>
+        <v>-3.381288810593377e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01422751455166702</v>
+        <v>0.01905989340014462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.998550721588523e-06</v>
+        <v>-1.20274020354014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04186156479872325</v>
+        <v>0.02225443601950269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.042277807029645</v>
+        <v>-3.620165966269124</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05323795791847355</v>
+        <v>0.06532417764906455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.217428089338363</v>
+        <v>-45.27256178625766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1073472041850326</v>
+        <v>0.06389011069075053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-41.93228729424649</v>
+        <v>-0.1924119401113164</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0909528987427102</v>
+        <v>0.04946168426803729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1784658175853301</v>
+        <v>0.1041037790170294</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0746639468106966</v>
+        <v>0.08020735088263567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07999273024106175</v>
+        <v>29.58650742680952</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1664681521470763</v>
+        <v>0.01002484789629278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.79219896401993</v>
+        <v>24.99392153176461</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03319654432617535</v>
+        <v>0.01270075467052475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.41823565183355</v>
+        <v>-18.71897743362659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04342861288994863</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-16.13852795886504</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.06588630384455975</v>
+        <v>0.03012278943539763</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.0633821113741</v>
+        <v>56.17392384847894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995578845152019</v>
+        <v>0.998869773011553</v>
       </c>
     </row>
     <row r="3">
@@ -2488,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20.56050385863973</v>
+        <v>-18.74855779566921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9998147270479202</v>
+        <v>0.999622776329311</v>
       </c>
     </row>
     <row r="4">
@@ -2501,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.76133471990849</v>
+        <v>-18.14426930622384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999821928448436</v>
+        <v>0.9996349346995141</v>
       </c>
     </row>
     <row r="5">
@@ -2514,257 +2436,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-22.01738448694658</v>
+        <v>-20.52338570965819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9998015989372816</v>
+        <v>0.9995870665402937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.15052355988669</v>
+        <v>-20.47064718307385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9998094103158766</v>
+        <v>0.9995881276469091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.70558838941715</v>
+        <v>-19.40367588438247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9998044085660045</v>
+        <v>0.9996095952605227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.22755738833138</v>
+        <v>-0.3478249367121619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9998087161556386</v>
+        <v>0.09554435789317485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2334959117319062</v>
+        <v>0.0004581091097708554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2907400212399212</v>
+        <v>4.674155827728003e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000443506217950549</v>
+        <v>0.01100196867753546</v>
       </c>
       <c r="C10" t="n">
-        <v>7.550550884244217e-06</v>
+        <v>0.183693822754063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0117208742805839</v>
+        <v>-0.1381889324582248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1605810239704051</v>
+        <v>0.5579713175898833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1957453561824619</v>
+        <v>0.8657367184963837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4079839152320196</v>
+        <v>0.004621437316716716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9653459238099027</v>
+        <v>0.5362754443128199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001674171556948752</v>
+        <v>0.1714988494808036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5713652101085249</v>
+        <v>-0.001095004379352058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1509652376186438</v>
+        <v>0.001529924692899412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001183965825829215</v>
+        <v>-4.09547890603327e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001103072939327318</v>
+        <v>0.006050316364440126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.639539797137214e-06</v>
+        <v>-1.534436683604198</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0151776177027033</v>
+        <v>0.0047484843501401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.336912949703333</v>
+        <v>-5.039562436273931</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01371162949082684</v>
+        <v>0.01310875656399257</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4.171002256961843</v>
+        <v>-62.94854753669172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04114698927079165</v>
+        <v>0.01247840704278331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-52.19846440019068</v>
+        <v>-0.2622249506881496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03966286826910688</v>
+        <v>0.009578447283370879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2300634609889889</v>
+        <v>0.1144790169763127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02381460021949331</v>
+        <v>0.0520791094565155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1234771592260755</v>
+        <v>33.17701547766629</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04378353298443804</v>
+        <v>0.005052836241310117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.44817809474711</v>
+        <v>25.93226813193543</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006703697355889238</v>
+        <v>0.01162293969769907</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.89429733703537</v>
+        <v>-23.34058718975496</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02130299683218148</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-20.33012780999973</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02379480278233603</v>
+        <v>0.009051790309005122</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,10 +2719,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.1233795422196</v>
+        <v>45.55394538468479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992941018136913</v>
+        <v>0.9857031841384835</v>
       </c>
     </row>
     <row r="3">
@@ -2823,10 +2732,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-19.36093461823044</v>
+        <v>-13.16798930479272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999716003930886</v>
+        <v>0.9958670382497801</v>
       </c>
     </row>
     <row r="4">
@@ -2836,10 +2745,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-18.54130159582431</v>
+        <v>-12.68321781622418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9997280267258633</v>
+        <v>0.9960191894993786</v>
       </c>
     </row>
     <row r="5">
@@ -2849,257 +2758,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-21.12451771137425</v>
+        <v>-14.76647402452414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996901347953452</v>
+        <v>0.9953653363169637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.40720187636586</v>
+        <v>-14.673966010604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9997153252591827</v>
+        <v>0.9953943709262703</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.07841233857375</v>
+        <v>-13.76586588921382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996908110924458</v>
+        <v>0.9956793880203555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.61850231483335</v>
+        <v>-0.2044264484971734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996975572871086</v>
+        <v>0.3441985023727947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3244045881042288</v>
+        <v>0.0004598568235350642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1230750568563957</v>
+        <v>3.964600191852108e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004127218625099235</v>
+        <v>0.01005357789780592</v>
       </c>
       <c r="C10" t="n">
-        <v>3.184727712518242e-05</v>
+        <v>0.2243886614873969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009603068675653276</v>
+        <v>-0.1223184813594248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2505735991058519</v>
+        <v>0.6070855095303218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1833583085163299</v>
+        <v>0.6853263120416277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4491705569945087</v>
+        <v>0.02510085346031159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.064584683562134</v>
+        <v>0.564307007124012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005309525752344473</v>
+        <v>0.1581370638497325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8024298286485952</v>
+        <v>-0.0009447720573105678</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04134091214692042</v>
+        <v>0.007069870233775429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0008908153622822749</v>
+        <v>-3.687520072682379e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009674507485779924</v>
+        <v>0.01415118268617495</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.276741474607314e-06</v>
+        <v>-1.311995877587322</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0276592900877826</v>
+        <v>0.015703871416659</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.252166285472598</v>
+        <v>-4.145537070456395</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02185142427808956</v>
+        <v>0.04292959811651105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.712810831189024</v>
+        <v>-53.61628444799101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06545401688414706</v>
+        <v>0.03509004632737243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-47.99958779300953</v>
+        <v>-0.222774423830836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05529970760222835</v>
+        <v>0.02937078207322632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2143101265081746</v>
+        <v>0.0884801164318071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03410450463522168</v>
+        <v>0.1367863585918568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09081269710354825</v>
+        <v>30.04530344935632</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1249253105819468</v>
+        <v>0.01202801607872547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.17742120914814</v>
+        <v>25.50033620646288</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02551728625748147</v>
+        <v>0.01402529352365525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.42019195684135</v>
+        <v>-20.68131433802874</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05737016660749195</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-17.42791464732669</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04882815276934159</v>
+        <v>0.02192147424868409</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Kassel.xlsx
+++ b/outputs/ML_Results/carown_LR/Kassel.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ9" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ7" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ8" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ11" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.26380671114605</v>
+        <v>15.68467203357532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986665329542859</v>
+        <v>0.9990911765034942</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.44873991941367</v>
+        <v>-16.53358670653406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992557741008924</v>
+        <v>0.9990419874332451</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.07886770201012</v>
+        <v>-16.47348913553152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992715499341236</v>
+        <v>0.9990454696911474</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.08256169487942</v>
+        <v>-17.96149428775275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991860881476071</v>
+        <v>0.998959249629116</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18.96403932945966</v>
+        <v>-17.66456920583808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991911433769169</v>
+        <v>0.9989764544737884</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.24176196979281</v>
+        <v>-17.41679984767742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992219500332189</v>
+        <v>0.9989908110703124</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1093064862494411</v>
+        <v>0.04419920138674011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6502737672675361</v>
+        <v>0.8698850549815513</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003597758813676693</v>
+        <v>0.0004578280706363441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002198867355556287</v>
+        <v>1.817582645805917e-05</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01092541747040483</v>
+        <v>0.01543974793333452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1816717127246548</v>
+        <v>0.08042389879085253</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08045649910728052</v>
+        <v>-0.01427153017279846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7315433875507011</v>
+        <v>0.9537957581601636</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.023725468746506</v>
+        <v>1.030519777038079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009631877420483131</v>
+        <v>0.001228656756915078</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6501557530409221</v>
+        <v>0.3823173013471289</v>
       </c>
       <c r="C13" t="n">
-        <v>0.102692994398779</v>
+        <v>0.3633641296401362</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0008805505087209243</v>
+        <v>-0.0004129622095931844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01461811777066075</v>
+        <v>0.04519093555021483</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.230142447513201e-06</v>
+        <v>-2.728849643803365e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1375549973856639</v>
+        <v>0.3704281905021927</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.8195253363505971</v>
+        <v>-0.1616462971327675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1391994705894385</v>
+        <v>0.4657240150085127</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.362845691123048</v>
+        <v>0.1367500590237407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2454117165945182</v>
+        <v>0.6800764856911206</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-31.28711857566458</v>
+        <v>1.061706259169138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2163114474710501</v>
+        <v>0.8564728576459033</v>
       </c>
     </row>
     <row r="19">
@@ -686,23 +686,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1346098124675821</v>
+        <v>-0.01159848997898466</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1871281188026188</v>
+        <v>0.7052736155691972</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09848532436465697</v>
+        <v>0.01337361781952223</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09826006791384177</v>
+        <v>0.7442623464628999</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.88841954576204</v>
+        <v>4.013490845921339</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06546153941066271</v>
+        <v>0.2077845610370327</v>
       </c>
     </row>
     <row r="22">
@@ -725,23 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.95059524226366</v>
+        <v>0.2319410768864192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1740944951357278</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-12.17701097928461</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1719493106132339</v>
+        <v>0.9389238991716259</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,10 +774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.28277994411164</v>
+        <v>13.97056978548953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988665816864367</v>
+        <v>0.9991819532959054</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.8634301790722</v>
+        <v>-16.40293475175921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996267610431739</v>
+        <v>0.9990395261512894</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +800,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-18.31588562285249</v>
+        <v>-16.34145969454453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999637594965915</v>
+        <v>0.9990431258222892</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-20.43316983602168</v>
+        <v>-18.06461255063505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9995957015837791</v>
+        <v>0.998942226661902</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +826,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.2194913115261</v>
+        <v>-17.76077194109577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995999295074186</v>
+        <v>0.9989600180378404</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.05679998072734</v>
+        <v>-17.42146381693687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996229349555386</v>
+        <v>0.9989798862139474</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2071614359265267</v>
+        <v>-0.09136186680766369</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3393110290479482</v>
+        <v>0.7273679137483844</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004712078586843473</v>
+        <v>0.0004734798749288228</v>
       </c>
       <c r="C9" t="n">
-        <v>2.531569347993285e-06</v>
+        <v>1.323160074378202e-05</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01080563520888442</v>
+        <v>0.01080138118492989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.197369444420454</v>
+        <v>0.2061035591564403</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2035900454182205</v>
+        <v>-0.04749647664752907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3897019340650887</v>
+        <v>0.8443519028780013</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8567845292546877</v>
+        <v>0.9141542064549488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005619716792828486</v>
+        <v>0.003565897085355283</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6548549141781838</v>
+        <v>0.4307106989429064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09752201509796729</v>
+        <v>0.2888703663884972</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001160360656069434</v>
+        <v>-0.000338221229798833</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008725780981097503</v>
+        <v>0.0995440612962766</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.467963996236637e-06</v>
+        <v>-1.821596013767177e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002742953539109394</v>
+        <v>0.54861209595451</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +956,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.603638617484633</v>
+        <v>-0.1525408856473675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00284992653257853</v>
+        <v>0.491332793973196</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +969,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.264743233007631</v>
+        <v>0.1948079067644066</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009548588580897044</v>
+        <v>0.5539102320033567</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +982,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-67.52913458581915</v>
+        <v>1.507149323735423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007453954955255573</v>
+        <v>0.7943701636368639</v>
       </c>
     </row>
     <row r="19">
@@ -1008,23 +995,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2879162902459083</v>
+        <v>0.0005978054963175925</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00449249711601518</v>
+        <v>0.9846588641794064</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1265762372587259</v>
+        <v>0.0252734775232638</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03412335572520967</v>
+        <v>0.5392838333108262</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1021,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36.33852592599124</v>
+        <v>3.205672653139548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002169952824900325</v>
+        <v>0.3124467089734861</v>
       </c>
     </row>
     <row r="22">
@@ -1047,23 +1034,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.11135893880773</v>
+        <v>-0.001677557187243187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00636005620419718</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-24.23460253683963</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.006748800124969972</v>
+        <v>0.9995549390328364</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,10 +1083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.89177001595672</v>
+        <v>14.19899188025293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986733204351391</v>
+        <v>0.999150812275359</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.13608407219995</v>
+        <v>-16.54582951360322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994757058899895</v>
+        <v>0.99901045681862</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.70243532363047</v>
+        <v>-16.46258998245639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994882421935073</v>
+        <v>0.9990154350570413</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.7830095087557</v>
+        <v>-17.9831320733396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994280951069502</v>
+        <v>0.9989244972651562</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.57831282820837</v>
+        <v>-17.69633681362236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9994340126602692</v>
+        <v>0.9989416493887897</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.19333664847017</v>
+        <v>-17.33848975720599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994451418935157</v>
+        <v>0.9989630508489373</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1550398933340039</v>
+        <v>0.01224237014087953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4986274816902821</v>
+        <v>0.9655810463463185</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003946756475428278</v>
+        <v>0.0004990008475311603</v>
       </c>
       <c r="C9" t="n">
-        <v>5.238161914175511e-05</v>
+        <v>7.341487856628909e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01049526532344293</v>
+        <v>0.01402180986678502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1976261181812801</v>
+        <v>0.1069810068066693</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0963488217900963</v>
+        <v>-0.1989232795259522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6789275221206059</v>
+        <v>0.4212593382210246</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9676724288949203</v>
+        <v>1.053956718748952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001265838673738087</v>
+        <v>0.0009167602551690937</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5424363600510969</v>
+        <v>0.3164623986901596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1580892275055527</v>
+        <v>0.4263151479559469</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009389348273682647</v>
+        <v>-0.0003263847462126155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005667137100975089</v>
+        <v>0.1180195781737416</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.163392222693673e-06</v>
+        <v>-2.031316531687555e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02911748476089356</v>
+        <v>0.5116926760570597</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.095419279817852</v>
+        <v>-0.1503319175996772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03882894738028748</v>
+        <v>0.5052243189529297</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1278,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.662885792370692</v>
+        <v>0.2752119260025906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06220809370210147</v>
+        <v>0.4114300931863157</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1291,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-46.63249613820916</v>
+        <v>2.597519057218547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05614495689296754</v>
+        <v>0.6513720065243462</v>
       </c>
     </row>
     <row r="19">
@@ -1330,23 +1304,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2107074032790185</v>
+        <v>0.006415325065998055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03244030538160702</v>
+        <v>0.8357621648359848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08621989069849433</v>
+        <v>0.01530086593515356</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1341180235877499</v>
+        <v>0.7184288906418071</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1330,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.27931977020482</v>
+        <v>2.741145255869073</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01358218574138594</v>
+        <v>0.3995439682909224</v>
       </c>
     </row>
     <row r="22">
@@ -1369,23 +1343,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.22430496370385</v>
+        <v>1.144195560331794</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03307414931508026</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-18.43591554616111</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03263877581299515</v>
+        <v>0.7113110471889836</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,10 +1392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.77113708109191</v>
+        <v>15.03207856815905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9986803152997686</v>
+        <v>0.9991070211109028</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.10335153930971</v>
+        <v>-16.5872107748676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994891993287091</v>
+        <v>0.9990146386219725</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.49592925724419</v>
+        <v>-16.32104983243943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995063382363777</v>
+        <v>0.9990304498756205</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.72751590178569</v>
+        <v>-18.13479527956797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994433722278288</v>
+        <v>0.9989227045933891</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.57521503717214</v>
+        <v>-17.77291686507287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9994476695188742</v>
+        <v>0.9989442019259339</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.27353956162931</v>
+        <v>-17.43392806808176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994843973371104</v>
+        <v>0.9989643395054321</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2655550303390055</v>
+        <v>-0.09009651158778677</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218219659516478</v>
+        <v>0.7351314822187385</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004312540448494879</v>
+        <v>0.000546622446119881</v>
       </c>
       <c r="C9" t="n">
-        <v>1.480847957411397e-05</v>
+        <v>1.267325572186433e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007636271775487031</v>
+        <v>0.008850044014367911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3523420247752042</v>
+        <v>0.3042866752125952</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1509,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2045600617632556</v>
+        <v>-0.1621491712487416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3802355578621517</v>
+        <v>0.4992861301786671</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1522,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.086657822549079</v>
+        <v>1.118918003621704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003468676019901619</v>
+        <v>0.0003996387906082517</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1535,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7686443068146137</v>
+        <v>0.5370418463057172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04810012919311979</v>
+        <v>0.1882418175867766</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1548,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009044749625989207</v>
+        <v>-0.0003108664948066438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006237878404357819</v>
+        <v>0.1382889852984375</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1561,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.281088277240979e-06</v>
+        <v>-2.14938706815392e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0197575851695357</v>
+        <v>0.4837701767147786</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1574,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.272434420339269</v>
+        <v>-0.1013893493008491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01419665865574521</v>
+        <v>0.6478132048865765</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1587,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.834061533834147</v>
+        <v>0.2338361357098061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04484143742249313</v>
+        <v>0.4746133955139373</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1600,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-47.13195971128565</v>
+        <v>0.5694935241053311</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04745752217366196</v>
+        <v>0.9219936639764894</v>
       </c>
     </row>
     <row r="19">
@@ -1652,23 +1613,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2056346835140943</v>
+        <v>-0.006249782991414966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03135086634149804</v>
+        <v>0.8393817499854257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09160696903900445</v>
+        <v>0.01382972357837218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1064427614074748</v>
+        <v>0.7370767242465679</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1639,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.08644219674597</v>
+        <v>3.779135236288312</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01863547413780603</v>
+        <v>0.240440278787548</v>
       </c>
     </row>
     <row r="22">
@@ -1691,23 +1652,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.10843219499487</v>
+        <v>0.4585854362261902</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03806702935344971</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-17.55012372074406</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03608307338596153</v>
+        <v>0.878128586586944</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,10 +1701,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.87469740125146</v>
+        <v>15.82687147158163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985876722803906</v>
+        <v>0.9990365068129275</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1714,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.74221329177983</v>
+        <v>-16.35171020997322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993715855661788</v>
+        <v>0.9990045560982964</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1727,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.0790626333509</v>
+        <v>-16.03739087524328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993950738063272</v>
+        <v>0.9990236909238213</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1740,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.31530704386335</v>
+        <v>-17.95688744971522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993158679073769</v>
+        <v>0.9989068376997287</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1753,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.23213736388816</v>
+        <v>-17.54540815361415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993188137074821</v>
+        <v>0.998931887329528</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1766,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.04336788224735</v>
+        <v>-16.91701685426803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999360918923605</v>
+        <v>0.9989701419166817</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1779,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.27119351861726</v>
+        <v>-0.05232576449733016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1957816533621779</v>
+        <v>0.8485760289413443</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1792,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004248568858335697</v>
+        <v>0.0004945650137716178</v>
       </c>
       <c r="C9" t="n">
-        <v>1.298876829960859e-05</v>
+        <v>9.046214690446176e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1805,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01427587704441836</v>
+        <v>0.01205183655390931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07895508450754481</v>
+        <v>0.1609283331266256</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1444761199577661</v>
+        <v>-0.04591480813387683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5398604584411878</v>
+        <v>0.8503123138227516</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8756692871125409</v>
+        <v>1.121930413222972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003455482736735005</v>
+        <v>0.0003966193074486505</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1844,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4906290462521282</v>
+        <v>0.5218121869538883</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2101529203927202</v>
+        <v>0.1912985905017915</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1857,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009442650648676431</v>
+        <v>-0.0003729430483743549</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00794733516654161</v>
+        <v>0.1221535240774447</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1870,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.819079059365779e-06</v>
+        <v>-2.554305711300699e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05438476462642469</v>
+        <v>0.4155490472579587</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1883,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.116261972166919</v>
+        <v>-0.1189391539942638</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03838046617641284</v>
+        <v>0.5954571926683493</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1896,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.184067815476363</v>
+        <v>0.3782056017314845</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1091117752285902</v>
+        <v>0.2535457497445998</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1909,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-41.07690348004837</v>
+        <v>2.982635956986345</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09642417982939168</v>
+        <v>0.6102817795257062</v>
       </c>
     </row>
     <row r="19">
@@ -1974,23 +1922,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1796498737868964</v>
+        <v>-0.009233382533630066</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06959340736341184</v>
+        <v>0.7685235750148194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09749540265587327</v>
+        <v>-0.0003542335232357061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1067872677529953</v>
+        <v>0.993704197936926</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +1948,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25.91245948432637</v>
+        <v>4.308690014225267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02561925397230691</v>
+        <v>0.247749764834936</v>
       </c>
     </row>
     <row r="22">
@@ -2013,23 +1961,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.16972863077266</v>
+        <v>1.28056589343794</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08898791919369729</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-15.72724619595934</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0715372618530212</v>
+        <v>0.6756055434134802</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,10 +2010,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.57038711051397</v>
+        <v>10.69811477654295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985381377731052</v>
+        <v>0.9993008184397967</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2023,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.73253014940651</v>
+        <v>-16.29996683229282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999405042402331</v>
+        <v>0.9989347061718871</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2036,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.09945551641275</v>
+        <v>-16.37411095818461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994262831669263</v>
+        <v>0.9989298604435106</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2049,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.52384357778714</v>
+        <v>-17.66078734587784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993449406968141</v>
+        <v>0.9988457690144251</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2062,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.31922787118014</v>
+        <v>-17.41401163878078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993518059122731</v>
+        <v>0.9988618971727247</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2075,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.36866599257179</v>
+        <v>-17.54061098871544</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993836989294452</v>
+        <v>0.9988536232053649</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2088,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3107964566109723</v>
+        <v>0.08821282538009516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1248124905594905</v>
+        <v>0.764667233563356</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2101,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004084196027639786</v>
+        <v>0.0004816070280914446</v>
       </c>
       <c r="C9" t="n">
-        <v>2.173027023890317e-05</v>
+        <v>1.430421631186387e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2114,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01021061741085946</v>
+        <v>0.01197091592555305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2189855002829261</v>
+        <v>0.1712676994959809</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2127,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1133012786340688</v>
+        <v>0.007987506872564821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6305414432956868</v>
+        <v>0.9740796335028068</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2140,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7493399473752348</v>
+        <v>1.163085888375555</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01390760621341301</v>
+        <v>0.0002122682714571565</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2153,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4865222310115276</v>
+        <v>0.5963630014808302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215285647437748</v>
+        <v>0.1394568712436203</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2166,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001060561778374689</v>
+        <v>-0.0003821091973805188</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002597527494913518</v>
+        <v>0.1078599703323101</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2179,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.381288810593377e-06</v>
+        <v>-8.818676675495121e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01905989340014462</v>
+        <v>0.7808759927607225</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2192,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.20274020354014</v>
+        <v>-0.03723155942056067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02225443601950269</v>
+        <v>0.8725727531172387</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2205,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.620165966269124</v>
+        <v>0.5027580207928942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06532417764906455</v>
+        <v>0.1252698993304822</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2218,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-45.27256178625766</v>
+        <v>3.426528870996497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06389011069075053</v>
+        <v>0.5537412772871457</v>
       </c>
     </row>
     <row r="19">
@@ -2296,23 +2231,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1924119401113164</v>
+        <v>0.01253525101680109</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04946168426803729</v>
+        <v>0.6960088594965875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1041037790170294</v>
+        <v>0.02524724396398719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08020735088263567</v>
+        <v>0.5697421753635223</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2257,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.58650742680952</v>
+        <v>4.356055135355422</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01002484789629278</v>
+        <v>0.2384770396382038</v>
       </c>
     </row>
     <row r="22">
@@ -2335,23 +2270,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.99392153176461</v>
+        <v>0.9928211357616384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01270075467052475</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-18.71897743362659</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03012278943539763</v>
+        <v>0.7402415929783075</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,10 +2319,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.17392384847894</v>
+        <v>17.13864048233246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.998869773011553</v>
+        <v>0.9990636623622404</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2332,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-18.74855779566921</v>
+        <v>-16.80555844230789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999622776329311</v>
+        <v>0.9990818596020471</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2345,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-18.14426930622384</v>
+        <v>-16.86518000616454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996349346995141</v>
+        <v>0.9990786022910142</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2358,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-20.52338570965819</v>
+        <v>-18.39900230052026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9995870665402937</v>
+        <v>0.9989948048076746</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2371,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.47064718307385</v>
+        <v>-18.10077114479035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995881276469091</v>
+        <v>0.9990110981025447</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2384,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.40367588438247</v>
+        <v>-17.97592085695729</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996095952605227</v>
+        <v>0.9990179190623845</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2397,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3478249367121619</v>
+        <v>-0.02898634978913585</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09554435789317485</v>
+        <v>0.915496506085657</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2410,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004581091097708554</v>
+        <v>0.0004519255914902913</v>
       </c>
       <c r="C9" t="n">
-        <v>4.674155827728003e-06</v>
+        <v>3.631615371934809e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2423,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01100196867753546</v>
+        <v>0.01400528796106591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183693822754063</v>
+        <v>0.1058477906503517</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2436,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1381889324582248</v>
+        <v>-0.08143299702847366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5579713175898833</v>
+        <v>0.7373711553016234</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2449,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8657367184963837</v>
+        <v>1.100236887844953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004621437316716716</v>
+        <v>0.0004532797810440786</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2462,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5362754443128199</v>
+        <v>0.3027758981964899</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1714988494808036</v>
+        <v>0.4510448937210442</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2475,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001095004379352058</v>
+        <v>-0.0002766977450292505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001529924692899412</v>
+        <v>0.1836817086535598</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2488,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.09547890603327e-06</v>
+        <v>-3.239174805591866e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006050316364440126</v>
+        <v>0.2888515235948591</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2501,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.534436683604198</v>
+        <v>-0.132195067690504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0047484843501401</v>
+        <v>0.5574821532534531</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2514,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.039562436273931</v>
+        <v>0.3099920767358558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01310875656399257</v>
+        <v>0.3428716079312624</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2527,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62.94854753669172</v>
+        <v>-0.4892496780621525</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01247840704278331</v>
+        <v>0.9324566448212671</v>
       </c>
     </row>
     <row r="19">
@@ -2618,23 +2540,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.2622249506881496</v>
+        <v>-0.01095610636961828</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009578447283370879</v>
+        <v>0.7300291004394107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1144790169763127</v>
+        <v>-0.001871453118688141</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0520791094565155</v>
+        <v>0.9634006429202873</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2566,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33.17701547766629</v>
+        <v>3.752704214552655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005052836241310117</v>
+        <v>0.2424710571367147</v>
       </c>
     </row>
     <row r="22">
@@ -2657,23 +2579,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.93226813193543</v>
+        <v>1.304702469824727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01162293969769907</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-23.34058718975496</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.009051790309005122</v>
+        <v>0.6571484404177754</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,10 +2628,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.55394538468479</v>
+        <v>5.813034542524212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9857031841384835</v>
+        <v>0.9951544202234023</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13.16798930479272</v>
+        <v>-10.98130836806724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9958670382497801</v>
+        <v>0.9908462697996291</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2654,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-12.68321781622418</v>
+        <v>-10.46770469275093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9960191894993786</v>
+        <v>0.9912743803636311</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-14.76647402452414</v>
+        <v>-12.83596713112272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953653363169637</v>
+        <v>0.9893003613162568</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2680,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.673966010604</v>
+        <v>-12.43739058864137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9953943709262703</v>
+        <v>0.9896325826543944</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2693,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.76586588921382</v>
+        <v>-11.66189963553531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9956793880203555</v>
+        <v>0.9902789758369195</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2706,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2044264484971734</v>
+        <v>-0.2879524021200915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3441985023727947</v>
+        <v>0.2610071996917925</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2719,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004598568235350642</v>
+        <v>0.0005315366153555321</v>
       </c>
       <c r="C9" t="n">
-        <v>3.964600191852108e-06</v>
+        <v>2.459663387854495e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2732,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01005357789780592</v>
+        <v>0.01416094125202719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2243886614873969</v>
+        <v>0.1072417710075315</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2745,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1223184813594248</v>
+        <v>-0.0749182913369871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6070855095303218</v>
+        <v>0.7605773702486968</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2758,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6853263120416277</v>
+        <v>1.09967616214992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02510085346031159</v>
+        <v>0.0007807124785830311</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2771,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.564307007124012</v>
+        <v>0.3880615814509113</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1581370638497325</v>
+        <v>0.3515680923010333</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2784,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009447720573105678</v>
+        <v>-0.0003152361746362618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007069870233775429</v>
+        <v>0.1854905595674989</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2797,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.687520072682379e-06</v>
+        <v>-5.910869693405331e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01415118268617495</v>
+        <v>0.8504185851305417</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2810,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.311995877587322</v>
+        <v>0.003885090121086145</v>
       </c>
       <c r="C16" t="n">
-        <v>0.015703871416659</v>
+        <v>0.9863447034464982</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2823,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.145537070456395</v>
+        <v>0.5304722473345945</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04292959811651105</v>
+        <v>0.1122869642578878</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2836,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-53.61628444799101</v>
+        <v>7.24821699868608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03509004632737243</v>
+        <v>0.222148473459545</v>
       </c>
     </row>
     <row r="19">
@@ -2940,23 +2849,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.222774423830836</v>
+        <v>0.01918274084410859</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02937078207322632</v>
+        <v>0.5442935725337523</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0884801164318071</v>
+        <v>0.01866888602409039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1367863585918568</v>
+        <v>0.6762775421034748</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2875,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.04530344935632</v>
+        <v>3.626276487551988</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01202801607872547</v>
+        <v>0.3252262324407108</v>
       </c>
     </row>
     <row r="22">
@@ -2979,23 +2888,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.50033620646288</v>
+        <v>2.562874454327517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01402529352365525</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-20.68131433802874</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02192147424868409</v>
+        <v>0.4071975380503124</v>
       </c>
     </row>
   </sheetData>
